--- a/REGULAR/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/ANGCAYA, ANA B..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ED7B93-7507-4A8B-A0BC-8EAC44FEC37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9299AD0-407A-4999-95F5-1B88C72D285B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="364">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2160,7 +2160,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4308" topLeftCell="A546" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="C552" sqref="C552"/>
+      <selection pane="bottomLeft" activeCell="K553" sqref="K553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2319,7 +2319,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>41.553999999999903</v>
+        <v>42.803999999999903</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2329,7 +2329,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>139.875</v>
+        <v>140.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14112,19 +14112,27 @@
       <c r="A552" s="40">
         <v>44986</v>
       </c>
-      <c r="B552" s="20"/>
-      <c r="C552" s="13"/>
+      <c r="B552" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C552" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D552" s="39"/>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H552" s="39"/>
+      <c r="G552" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H552" s="39">
+        <v>1</v>
+      </c>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="20"/>
+      <c r="K552" s="49">
+        <v>45014</v>
+      </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">

--- a/REGULAR/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/ANGCAYA, ANA B..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9299AD0-407A-4999-95F5-1B88C72D285B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="365">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1126,12 +1125,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>5/18,19/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1826,25 +1828,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K761" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K761" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2151,34 +2153,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K761"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A546" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A546" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K553" sqref="K553"/>
+      <selection pane="bottomLeft" activeCell="D555" sqref="D555"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2199,7 +2201,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2217,7 +2219,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2239,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2245,7 +2247,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2258,7 +2260,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2275,7 +2277,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2319,7 +2321,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.803999999999903</v>
+        <v>42.053999999999903</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2329,12 +2331,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.125</v>
+        <v>141.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2356,7 +2358,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36373</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>36376</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -2401,7 +2403,7 @@
         <v>36398</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -2418,7 +2420,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36404</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -2463,7 +2465,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36434</v>
       </c>
@@ -2489,7 +2491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>45</v>
@@ -2508,7 +2510,7 @@
         <v>36448</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
@@ -2525,7 +2527,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36465</v>
       </c>
@@ -2549,7 +2551,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36495</v>
       </c>
@@ -2575,7 +2577,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>52</v>
@@ -2597,7 +2599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>50</v>
@@ -2617,7 +2619,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -2635,7 +2637,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36526</v>
       </c>
@@ -2659,7 +2661,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36557</v>
       </c>
@@ -2683,7 +2685,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36586</v>
       </c>
@@ -2707,7 +2709,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36617</v>
       </c>
@@ -2733,7 +2735,7 @@
         <v>36626</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>60</v>
@@ -2750,7 +2752,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36647</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>36664</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>52</v>
@@ -2795,7 +2797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>62</v>
@@ -2812,7 +2814,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36678</v>
       </c>
@@ -2836,7 +2838,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>52</v>
@@ -2853,7 +2855,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36708</v>
       </c>
@@ -2877,7 +2879,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36739</v>
       </c>
@@ -2901,7 +2903,7 @@
         <v>36753</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>45</v>
@@ -2918,7 +2920,7 @@
         <v>36766</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>65</v>
@@ -2935,7 +2937,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36770</v>
       </c>
@@ -2961,7 +2963,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
@@ -2980,7 +2982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -2997,7 +2999,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36800</v>
       </c>
@@ -3021,7 +3023,7 @@
         <v>36826</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>67</v>
@@ -3038,7 +3040,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36831</v>
       </c>
@@ -3064,7 +3066,7 @@
         <v>36854</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>69</v>
@@ -3083,7 +3085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>49</v>
@@ -3102,7 +3104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>68</v>
@@ -3121,7 +3123,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -3138,7 +3140,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36861</v>
       </c>
@@ -3162,7 +3164,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>77</v>
       </c>
@@ -3180,7 +3182,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36892</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>86</v>
@@ -3225,7 +3227,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36923</v>
       </c>
@@ -3249,7 +3251,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>79</v>
@@ -3266,7 +3268,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36951</v>
       </c>
@@ -3294,7 +3296,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>81</v>
@@ -3311,7 +3313,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36982</v>
       </c>
@@ -3335,7 +3337,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>37012</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>37042</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>49</v>
@@ -3378,7 +3380,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>63</v>
@@ -3397,7 +3399,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37043</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>37068</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>83</v>
@@ -3440,7 +3442,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37073</v>
       </c>
@@ -3466,7 +3468,7 @@
         <v>37074</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>84</v>
@@ -3483,7 +3485,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37104</v>
       </c>
@@ -3509,7 +3511,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -3526,7 +3528,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37135</v>
       </c>
@@ -3552,7 +3554,7 @@
         <v>37155</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>91</v>
@@ -3569,7 +3571,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37165</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>37194</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>92</v>
@@ -3612,7 +3614,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37196</v>
       </c>
@@ -3638,7 +3640,7 @@
         <v>37211</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>65</v>
@@ -3655,7 +3657,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37226</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>37245</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>93</v>
@@ -3701,7 +3703,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="48" t="s">
         <v>94</v>
       </c>
@@ -3719,7 +3721,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37257</v>
       </c>
@@ -3745,7 +3747,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>95</v>
@@ -3762,7 +3764,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37288</v>
       </c>
@@ -3788,7 +3790,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>80</v>
@@ -3809,7 +3811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -3826,7 +3828,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37316</v>
       </c>
@@ -3852,7 +3854,7 @@
         <v>37347</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>97</v>
@@ -3869,7 +3871,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37347</v>
       </c>
@@ -3897,7 +3899,7 @@
         <v>37372</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>78</v>
@@ -3916,7 +3918,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>98</v>
@@ -3933,7 +3935,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37377</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>101</v>
@@ -3978,7 +3980,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37408</v>
       </c>
@@ -4004,7 +4006,7 @@
         <v>37424</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37438</v>
       </c>
@@ -4024,7 +4026,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37469</v>
       </c>
@@ -4050,7 +4052,7 @@
         <v>37477</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>102</v>
@@ -4069,7 +4071,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -4086,7 +4088,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37500</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>78</v>
@@ -4131,7 +4133,7 @@
         <v>37516</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>78</v>
@@ -4150,7 +4152,7 @@
         <v>37526</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>104</v>
@@ -4169,7 +4171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37530</v>
       </c>
@@ -4195,7 +4197,7 @@
         <v>37558</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37561</v>
       </c>
@@ -4219,7 +4221,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37591</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>37619</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="48" t="s">
         <v>109</v>
       </c>
@@ -4263,7 +4265,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37622</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>37650</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37653</v>
       </c>
@@ -4315,7 +4317,7 @@
         <v>37663</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>111</v>
@@ -4332,7 +4334,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37681</v>
       </c>
@@ -4356,7 +4358,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37712</v>
       </c>
@@ -4382,7 +4384,7 @@
         <v>37722</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>69</v>
@@ -4401,7 +4403,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>113</v>
@@ -4418,7 +4420,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37742</v>
       </c>
@@ -4444,7 +4446,7 @@
         <v>37757</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>45</v>
@@ -4463,7 +4465,7 @@
         <v>37748</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>114</v>
@@ -4480,7 +4482,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37773</v>
       </c>
@@ -4506,7 +4508,7 @@
         <v>37799</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37803</v>
       </c>
@@ -4530,7 +4532,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37834</v>
       </c>
@@ -4556,7 +4558,7 @@
         <v>37862</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>116</v>
@@ -4573,7 +4575,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37865</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>37873</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>52</v>
@@ -4618,7 +4620,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>119</v>
@@ -4635,7 +4637,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37895</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>120</v>
@@ -4678,7 +4680,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37926</v>
       </c>
@@ -4704,7 +4706,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>123</v>
@@ -4721,7 +4723,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37956</v>
       </c>
@@ -4747,7 +4749,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>121</v>
@@ -4769,7 +4771,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="48" t="s">
         <v>128</v>
       </c>
@@ -4787,7 +4789,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37987</v>
       </c>
@@ -4813,7 +4815,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>129</v>
@@ -4832,7 +4834,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>130</v>
@@ -4849,7 +4851,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38018</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>38021</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>131</v>
@@ -4892,7 +4894,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38047</v>
       </c>
@@ -4918,7 +4920,7 @@
         <v>38047</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>132</v>
@@ -4935,7 +4937,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38078</v>
       </c>
@@ -4961,7 +4963,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38108</v>
       </c>
@@ -4985,7 +4987,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38139</v>
       </c>
@@ -5011,7 +5013,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38169</v>
       </c>
@@ -5037,7 +5039,7 @@
         <v>38183</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>136</v>
@@ -5056,7 +5058,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38200</v>
       </c>
@@ -5082,7 +5084,7 @@
         <v>38209</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>139</v>
@@ -5101,7 +5103,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38231</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>52</v>
@@ -5148,7 +5150,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>47</v>
@@ -5171,7 +5173,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>140</v>
@@ -5188,7 +5190,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38261</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>141</v>
@@ -5229,7 +5231,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38292</v>
       </c>
@@ -5253,7 +5255,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>143</v>
@@ -5272,7 +5274,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38322</v>
       </c>
@@ -5292,7 +5294,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="48" t="s">
         <v>149</v>
       </c>
@@ -5310,7 +5312,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38353</v>
       </c>
@@ -5336,7 +5338,7 @@
         <v>38433</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38384</v>
       </c>
@@ -5356,7 +5358,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38412</v>
       </c>
@@ -5378,7 +5380,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>151</v>
@@ -5395,7 +5397,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38443</v>
       </c>
@@ -5421,7 +5423,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>152</v>
@@ -5438,7 +5440,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38473</v>
       </c>
@@ -5464,7 +5466,7 @@
         <v>38485</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>153</v>
@@ -5483,7 +5485,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>156</v>
@@ -5500,7 +5502,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>38504</v>
       </c>
@@ -5524,7 +5526,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>45</v>
@@ -5543,7 +5545,7 @@
         <v>38532</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>157</v>
@@ -5560,7 +5562,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38534</v>
       </c>
@@ -5584,7 +5586,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38565</v>
       </c>
@@ -5612,7 +5614,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>160</v>
@@ -5629,7 +5631,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38596</v>
       </c>
@@ -5657,7 +5659,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B164" s="1" t="s">
         <v>161</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38626</v>
       </c>
@@ -5689,7 +5691,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>159</v>
@@ -5706,7 +5708,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>38657</v>
       </c>
@@ -5734,7 +5736,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>162</v>
@@ -5751,7 +5753,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38687</v>
       </c>
@@ -5777,7 +5779,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>47</v>
@@ -5801,7 +5803,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>104</v>
@@ -5825,7 +5827,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>163</v>
@@ -5847,7 +5849,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
         <v>169</v>
       </c>
@@ -5865,7 +5867,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>38718</v>
       </c>
@@ -5889,7 +5891,7 @@
         <v>38747</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>170</v>
@@ -5906,7 +5908,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38749</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>52</v>
@@ -5955,7 +5957,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>173</v>
@@ -5972,7 +5974,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38777</v>
       </c>
@@ -6000,7 +6002,7 @@
         <v>38792</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>47</v>
@@ -6021,7 +6023,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>175</v>
@@ -6040,7 +6042,7 @@
       </c>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>38808</v>
       </c>
@@ -6066,7 +6068,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>45</v>
@@ -6085,7 +6087,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>151</v>
@@ -6102,7 +6104,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>52</v>
@@ -6123,7 +6125,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>150</v>
@@ -6140,7 +6142,7 @@
         <v>38868</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38838</v>
       </c>
@@ -6168,7 +6170,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>150</v>
@@ -6183,7 +6185,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>176</v>
@@ -6202,7 +6204,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>38869</v>
       </c>
@@ -6230,7 +6232,7 @@
         <v>38877</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>78</v>
@@ -6249,7 +6251,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>177</v>
@@ -6268,7 +6270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>178</v>
@@ -6289,7 +6291,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>38899</v>
       </c>
@@ -6315,7 +6317,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>45</v>
@@ -6334,7 +6336,7 @@
         <v>38946</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>180</v>
@@ -6351,7 +6353,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>38930</v>
       </c>
@@ -6377,7 +6379,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>38961</v>
       </c>
@@ -6403,7 +6405,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>45</v>
@@ -6422,7 +6424,7 @@
         <v>38985</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>187</v>
@@ -6441,7 +6443,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>38991</v>
       </c>
@@ -6465,7 +6467,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>39022</v>
       </c>
@@ -6491,7 +6493,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>47</v>
@@ -6514,7 +6516,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>49</v>
@@ -6533,7 +6535,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>189</v>
@@ -6552,7 +6554,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39052</v>
       </c>
@@ -6578,7 +6580,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>78</v>
@@ -6602,7 +6604,7 @@
         <v>39075</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>195</v>
@@ -6619,7 +6621,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="49"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="48" t="s">
         <v>194</v>
       </c>
@@ -6637,7 +6639,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39083</v>
       </c>
@@ -6663,7 +6665,7 @@
         <v>39093</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>150</v>
@@ -6680,7 +6682,7 @@
         <v>39111</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>69</v>
@@ -6699,7 +6701,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>196</v>
@@ -6716,7 +6718,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39114</v>
       </c>
@@ -6742,7 +6744,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>136</v>
@@ -6759,7 +6761,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39142</v>
       </c>
@@ -6785,7 +6787,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>197</v>
@@ -6802,7 +6804,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39173</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>200</v>
@@ -6847,7 +6849,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>39203</v>
       </c>
@@ -6871,7 +6873,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>39234</v>
       </c>
@@ -6897,7 +6899,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>45</v>
@@ -6916,7 +6918,7 @@
         <v>39251</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>78</v>
@@ -6939,7 +6941,7 @@
         <v>39253</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>150</v>
@@ -6956,7 +6958,7 @@
         <v>39269</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>202</v>
@@ -6975,7 +6977,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39264</v>
       </c>
@@ -6999,7 +7001,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>39295</v>
       </c>
@@ -7023,7 +7025,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39326</v>
       </c>
@@ -7049,7 +7051,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>45</v>
@@ -7068,7 +7070,7 @@
         <v>39353</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>205</v>
@@ -7085,7 +7087,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>39356</v>
       </c>
@@ -7111,7 +7113,7 @@
         <v>39378</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>69</v>
@@ -7130,7 +7132,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>206</v>
@@ -7147,7 +7149,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>39387</v>
       </c>
@@ -7173,7 +7175,7 @@
         <v>39395</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>52</v>
@@ -7192,7 +7194,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>210</v>
@@ -7209,7 +7211,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>39417</v>
       </c>
@@ -7233,7 +7235,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>212</v>
@@ -7250,7 +7252,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
         <v>211</v>
       </c>
@@ -7268,7 +7270,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39448</v>
       </c>
@@ -7292,7 +7294,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="41">
         <v>39479</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>39482</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>69</v>
@@ -7340,7 +7342,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>45</v>
@@ -7362,7 +7364,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>214</v>
@@ -7384,7 +7386,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="41">
         <v>39508</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>39517</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>78</v>
@@ -7432,7 +7434,7 @@
         <v>39518</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>47</v>
@@ -7454,7 +7456,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>78</v>
@@ -7478,7 +7480,7 @@
         <v>39538</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>215</v>
@@ -7500,7 +7502,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="41">
         <v>39539</v>
       </c>
@@ -7528,7 +7530,7 @@
         <v>39561</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>45</v>
@@ -7554,7 +7556,7 @@
         <v>39567</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="41">
         <v>39569</v>
       </c>
@@ -7580,7 +7582,7 @@
         <v>39581</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>45</v>
@@ -7602,7 +7604,7 @@
         <v>39583</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>150</v>
@@ -7622,7 +7624,7 @@
         <v>39619</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>217</v>
@@ -7642,7 +7644,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="41">
         <v>39600</v>
       </c>
@@ -7668,7 +7670,7 @@
         <v>39624</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>220</v>
@@ -7690,7 +7692,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="41">
         <v>39630</v>
       </c>
@@ -7716,7 +7718,7 @@
         <v>39643</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>221</v>
@@ -7738,7 +7740,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="41">
         <v>39661</v>
       </c>
@@ -7762,7 +7764,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="41">
         <v>39692</v>
       </c>
@@ -7788,7 +7790,7 @@
         <v>39707</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>45</v>
@@ -7810,7 +7812,7 @@
         <v>39720</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>223</v>
@@ -7832,7 +7834,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="41">
         <v>39722</v>
       </c>
@@ -7858,7 +7860,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>224</v>
@@ -7880,7 +7882,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="41">
         <v>39753</v>
       </c>
@@ -7910,7 +7912,7 @@
         <v>39773</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>225</v>
@@ -7932,7 +7934,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -7954,7 +7956,7 @@
         <v>39778</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>226</v>
@@ -7974,7 +7976,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="41">
         <v>39783</v>
       </c>
@@ -7998,7 +8000,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
         <v>229</v>
       </c>
@@ -8016,7 +8018,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>39814</v>
       </c>
@@ -8040,7 +8042,7 @@
         <v>39818</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>150</v>
@@ -8057,7 +8059,7 @@
         <v>39832</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>150</v>
@@ -8074,7 +8076,7 @@
         <v>39836</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>230</v>
@@ -8093,7 +8095,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>232</v>
@@ -8110,7 +8112,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>39845</v>
       </c>
@@ -8136,7 +8138,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>129</v>
@@ -8157,7 +8159,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>233</v>
@@ -8174,7 +8176,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>39873</v>
       </c>
@@ -8204,7 +8206,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>78</v>
@@ -8223,7 +8225,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>226</v>
@@ -8244,7 +8246,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>39904</v>
       </c>
@@ -8270,7 +8272,7 @@
         <v>39906</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -8289,7 +8291,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -8308,7 +8310,7 @@
         <v>39919</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>69</v>
@@ -8327,7 +8329,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>234</v>
@@ -8348,7 +8350,7 @@
       </c>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>39934</v>
       </c>
@@ -8374,7 +8376,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>235</v>
@@ -8395,7 +8397,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>39965</v>
       </c>
@@ -8419,7 +8421,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>39995</v>
       </c>
@@ -8445,7 +8447,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>40026</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>40049</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>238</v>
@@ -8490,7 +8492,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>40057</v>
       </c>
@@ -8516,7 +8518,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40087</v>
       </c>
@@ -8542,7 +8544,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>69</v>
@@ -8561,7 +8563,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>68</v>
@@ -8580,7 +8582,7 @@
         <v>40130</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>245</v>
@@ -8597,7 +8599,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>40118</v>
       </c>
@@ -8621,7 +8623,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>40148</v>
       </c>
@@ -8647,7 +8649,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>45</v>
@@ -8666,7 +8668,7 @@
         <v>40158</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -8688,7 +8690,7 @@
         <v>40165</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>247</v>
@@ -8710,7 +8712,7 @@
         <v>40169</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="48" t="s">
         <v>249</v>
       </c>
@@ -8728,7 +8730,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>40179</v>
       </c>
@@ -8752,7 +8754,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>45</v>
@@ -8771,7 +8773,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>251</v>
@@ -8790,7 +8792,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>40210</v>
       </c>
@@ -8816,7 +8818,7 @@
         <v>40218</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>252</v>
@@ -8833,7 +8835,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>40238</v>
       </c>
@@ -8859,7 +8861,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>40269</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>45</v>
@@ -8904,7 +8906,7 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>188</v>
@@ -8921,7 +8923,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>40299</v>
       </c>
@@ -8947,7 +8949,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>255</v>
@@ -8964,7 +8966,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="49"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>40330</v>
       </c>
@@ -8990,7 +8992,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>256</v>
@@ -9007,7 +9009,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>40360</v>
       </c>
@@ -9033,7 +9035,7 @@
         <v>40387</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>257</v>
@@ -9050,7 +9052,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>40391</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>45</v>
@@ -9095,7 +9097,7 @@
         <v>40410</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>258</v>
@@ -9112,7 +9114,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>40422</v>
       </c>
@@ -9138,7 +9140,7 @@
         <v>40434</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>78</v>
@@ -9159,7 +9161,7 @@
         <v>40438</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>259</v>
@@ -9176,7 +9178,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>40452</v>
       </c>
@@ -9200,7 +9202,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>40483</v>
       </c>
@@ -9226,7 +9228,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>261</v>
@@ -9243,7 +9245,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>40513</v>
       </c>
@@ -9269,7 +9271,7 @@
         <v>40529</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>45</v>
@@ -9293,7 +9295,7 @@
         <v>40535</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>262</v>
@@ -9315,7 +9317,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="48" t="s">
         <v>264</v>
       </c>
@@ -9333,7 +9335,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>40544</v>
       </c>
@@ -9357,7 +9359,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>261</v>
@@ -9374,7 +9376,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>40575</v>
       </c>
@@ -9400,7 +9402,7 @@
         <v>40578</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>268</v>
@@ -9417,7 +9419,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>40603</v>
       </c>
@@ -9443,7 +9445,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>150</v>
@@ -9460,7 +9462,7 @@
         <v>40662</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>269</v>
@@ -9477,7 +9479,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>40634</v>
       </c>
@@ -9501,7 +9503,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>40664</v>
       </c>
@@ -9527,7 +9529,7 @@
         <v>40673</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>271</v>
@@ -9544,7 +9546,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>40695</v>
       </c>
@@ -9568,7 +9570,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40725</v>
       </c>
@@ -9594,7 +9596,7 @@
         <v>40763</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>274</v>
@@ -9611,7 +9613,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>40756</v>
       </c>
@@ -9635,7 +9637,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>40787</v>
       </c>
@@ -9659,7 +9661,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>40817</v>
       </c>
@@ -9683,7 +9685,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>40848</v>
       </c>
@@ -9709,7 +9711,7 @@
         <v>40864</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>204</v>
@@ -9726,7 +9728,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>40878</v>
       </c>
@@ -9752,7 +9754,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>278</v>
@@ -9772,7 +9774,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="48" t="s">
         <v>280</v>
       </c>
@@ -9790,7 +9792,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40909</v>
       </c>
@@ -9814,7 +9816,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>40940</v>
       </c>
@@ -9838,7 +9840,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>40969</v>
       </c>
@@ -9862,7 +9864,7 @@
         <v>40622</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>41000</v>
       </c>
@@ -9886,7 +9888,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>41030</v>
       </c>
@@ -9910,7 +9912,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>41061</v>
       </c>
@@ -9934,7 +9936,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>41091</v>
       </c>
@@ -9958,7 +9960,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>41122</v>
       </c>
@@ -9982,7 +9984,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>41153</v>
       </c>
@@ -10006,7 +10008,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>273</v>
@@ -10025,7 +10027,7 @@
         <v>40818</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>284</v>
@@ -10042,7 +10044,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>41183</v>
       </c>
@@ -10068,7 +10070,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>273</v>
@@ -10087,7 +10089,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>284</v>
@@ -10104,7 +10106,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>41214</v>
       </c>
@@ -10130,7 +10132,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>285</v>
@@ -10149,7 +10151,7 @@
         <v>40896</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>41244</v>
       </c>
@@ -10175,7 +10177,7 @@
         <v>40905</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>286</v>
@@ -10195,7 +10197,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="48" t="s">
         <v>288</v>
       </c>
@@ -10213,7 +10215,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>41275</v>
       </c>
@@ -10237,7 +10239,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41306</v>
       </c>
@@ -10257,7 +10259,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>41334</v>
       </c>
@@ -10281,7 +10283,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>41365</v>
       </c>
@@ -10305,7 +10307,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>41395</v>
       </c>
@@ -10329,7 +10331,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>291</v>
@@ -10346,7 +10348,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>41426</v>
       </c>
@@ -10370,7 +10372,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>41456</v>
       </c>
@@ -10394,7 +10396,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>41487</v>
       </c>
@@ -10418,7 +10420,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>41518</v>
       </c>
@@ -10442,7 +10444,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>41548</v>
       </c>
@@ -10466,7 +10468,7 @@
         <v>41565</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>296</v>
@@ -10483,7 +10485,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>41579</v>
       </c>
@@ -10507,7 +10509,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>41609</v>
       </c>
@@ -10531,7 +10533,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>298</v>
@@ -10553,7 +10555,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>299</v>
@@ -10573,7 +10575,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="48" t="s">
         <v>302</v>
       </c>
@@ -10591,7 +10593,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>41640</v>
       </c>
@@ -10615,7 +10617,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>41671</v>
       </c>
@@ -10639,7 +10641,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>41699</v>
       </c>
@@ -10663,7 +10665,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>41730</v>
       </c>
@@ -10687,7 +10689,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>41760</v>
       </c>
@@ -10711,7 +10713,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>41791</v>
       </c>
@@ -10735,7 +10737,7 @@
         <v>41810</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>307</v>
@@ -10752,7 +10754,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>41821</v>
       </c>
@@ -10776,7 +10778,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>41852</v>
       </c>
@@ -10800,7 +10802,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>41883</v>
       </c>
@@ -10824,7 +10826,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>41913</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>311</v>
@@ -10865,7 +10867,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>41944</v>
       </c>
@@ -10891,7 +10893,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>312</v>
@@ -10908,7 +10910,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>41974</v>
       </c>
@@ -10932,7 +10934,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="48" t="s">
         <v>314</v>
       </c>
@@ -10950,7 +10952,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42005</v>
       </c>
@@ -10974,7 +10976,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>150</v>
@@ -10991,7 +10993,7 @@
         <v>42048</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>315</v>
@@ -11008,7 +11010,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>42036</v>
       </c>
@@ -11032,7 +11034,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>42064</v>
       </c>
@@ -11056,7 +11058,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>42095</v>
       </c>
@@ -11080,7 +11082,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>42125</v>
       </c>
@@ -11104,7 +11106,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42156</v>
       </c>
@@ -11130,7 +11132,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>238</v>
@@ -11147,7 +11149,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>42186</v>
       </c>
@@ -11171,7 +11173,7 @@
         <v>42216</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>320</v>
@@ -11188,7 +11190,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>42217</v>
       </c>
@@ -11212,7 +11214,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42248</v>
       </c>
@@ -11236,7 +11238,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>42278</v>
       </c>
@@ -11260,7 +11262,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>42309</v>
       </c>
@@ -11286,7 +11288,7 @@
         <v>42367</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>323</v>
@@ -11303,7 +11305,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>42339</v>
       </c>
@@ -11329,7 +11331,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>324</v>
@@ -11349,7 +11351,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="48" t="s">
         <v>327</v>
       </c>
@@ -11367,7 +11369,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>42370</v>
       </c>
@@ -11391,7 +11393,7 @@
         <v>42377</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>150</v>
@@ -11408,7 +11410,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>150</v>
@@ -11425,7 +11427,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>328</v>
@@ -11442,7 +11444,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>42401</v>
       </c>
@@ -11466,7 +11468,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42430</v>
       </c>
@@ -11492,7 +11494,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>330</v>
@@ -11509,7 +11511,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>42461</v>
       </c>
@@ -11535,7 +11537,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>45</v>
@@ -11554,7 +11556,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>45</v>
@@ -11573,7 +11575,7 @@
         <v>42493</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>332</v>
@@ -11590,7 +11592,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>42491</v>
       </c>
@@ -11616,7 +11618,7 @@
         <v>42502</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>45</v>
@@ -11635,7 +11637,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>333</v>
@@ -11654,7 +11656,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>42522</v>
       </c>
@@ -11680,7 +11682,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>45</v>
@@ -11699,7 +11701,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>45</v>
@@ -11718,7 +11720,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>334</v>
@@ -11735,7 +11737,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>42552</v>
       </c>
@@ -11761,7 +11763,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>42583</v>
       </c>
@@ -11787,7 +11789,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>42614</v>
       </c>
@@ -11813,7 +11815,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>42644</v>
       </c>
@@ -11839,7 +11841,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>68</v>
@@ -11858,7 +11860,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>338</v>
@@ -11877,7 +11879,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>42675</v>
       </c>
@@ -11903,7 +11905,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>42705</v>
       </c>
@@ -11929,7 +11931,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>342</v>
@@ -11946,7 +11948,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="49"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>341</v>
       </c>
@@ -11964,7 +11966,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>42736</v>
       </c>
@@ -11986,7 +11988,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>42767</v>
       </c>
@@ -12010,7 +12012,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>42795</v>
       </c>
@@ -12036,7 +12038,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>42826</v>
       </c>
@@ -12056,7 +12058,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>42856</v>
       </c>
@@ -12082,7 +12084,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>150</v>
@@ -12099,7 +12101,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>42887</v>
       </c>
@@ -12119,7 +12121,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>42917</v>
       </c>
@@ -12139,7 +12141,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>42948</v>
       </c>
@@ -12163,7 +12165,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>42979</v>
       </c>
@@ -12183,7 +12185,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43009</v>
       </c>
@@ -12203,7 +12205,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43040</v>
       </c>
@@ -12223,7 +12225,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43070</v>
       </c>
@@ -12247,7 +12249,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="48" t="s">
         <v>345</v>
       </c>
@@ -12265,7 +12267,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43101</v>
       </c>
@@ -12289,7 +12291,7 @@
         <v>43124</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43132</v>
       </c>
@@ -12309,7 +12311,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43160</v>
       </c>
@@ -12333,7 +12335,7 @@
         <v>43165</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43191</v>
       </c>
@@ -12359,7 +12361,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43221</v>
       </c>
@@ -12385,7 +12387,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>45</v>
@@ -12404,7 +12406,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43252</v>
       </c>
@@ -12424,7 +12426,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43282</v>
       </c>
@@ -12450,7 +12452,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43313</v>
       </c>
@@ -12476,7 +12478,7 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43344</v>
       </c>
@@ -12500,7 +12502,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>45</v>
@@ -12519,7 +12521,7 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43374</v>
       </c>
@@ -12539,7 +12541,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43405</v>
       </c>
@@ -12565,7 +12567,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43435</v>
       </c>
@@ -12585,7 +12587,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="48" t="s">
         <v>346</v>
       </c>
@@ -12603,7 +12605,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43466</v>
       </c>
@@ -12627,7 +12629,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43497</v>
       </c>
@@ -12651,7 +12653,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>45</v>
@@ -12670,7 +12672,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>43525</v>
       </c>
@@ -12696,7 +12698,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>43556</v>
       </c>
@@ -12722,7 +12724,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>49</v>
@@ -12741,7 +12743,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43586</v>
       </c>
@@ -12767,7 +12769,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>43617</v>
       </c>
@@ -12791,7 +12793,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>68</v>
@@ -12812,7 +12814,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>43647</v>
       </c>
@@ -12832,7 +12834,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43678</v>
       </c>
@@ -12852,7 +12854,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43709</v>
       </c>
@@ -12878,7 +12880,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43739</v>
       </c>
@@ -12898,7 +12900,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43770</v>
       </c>
@@ -12918,7 +12920,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>43800</v>
       </c>
@@ -12944,7 +12946,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>45</v>
@@ -12963,7 +12965,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
         <v>349</v>
       </c>
@@ -12981,7 +12983,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>43831</v>
       </c>
@@ -13001,7 +13003,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43862</v>
       </c>
@@ -13025,7 +13027,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>49</v>
@@ -13042,7 +13044,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>150</v>
@@ -13059,7 +13061,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43891</v>
       </c>
@@ -13079,7 +13081,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43922</v>
       </c>
@@ -13099,7 +13101,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43952</v>
       </c>
@@ -13119,7 +13121,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43983</v>
       </c>
@@ -13143,7 +13145,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>45</v>
@@ -13160,7 +13162,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44013</v>
       </c>
@@ -13180,7 +13182,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>44044</v>
       </c>
@@ -13200,7 +13202,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44075</v>
       </c>
@@ -13220,7 +13222,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44105</v>
       </c>
@@ -13240,7 +13242,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44136</v>
       </c>
@@ -13260,7 +13262,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44166</v>
       </c>
@@ -13284,7 +13286,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="48" t="s">
         <v>354</v>
       </c>
@@ -13302,7 +13304,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44197</v>
       </c>
@@ -13328,7 +13330,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>150</v>
@@ -13345,7 +13347,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>69</v>
@@ -13364,7 +13366,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>68</v>
@@ -13383,7 +13385,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>150</v>
@@ -13400,7 +13402,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44228</v>
       </c>
@@ -13426,7 +13428,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>44256</v>
       </c>
@@ -13452,7 +13454,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>44287</v>
       </c>
@@ -13472,7 +13474,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>44317</v>
       </c>
@@ -13492,7 +13494,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>44348</v>
       </c>
@@ -13512,7 +13514,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44378</v>
       </c>
@@ -13532,7 +13534,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44409</v>
       </c>
@@ -13554,7 +13556,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44440</v>
       </c>
@@ -13574,7 +13576,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44470</v>
       </c>
@@ -13594,7 +13596,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44501</v>
       </c>
@@ -13620,7 +13622,7 @@
         <v>44505</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>142</v>
@@ -13639,7 +13641,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44531</v>
       </c>
@@ -13663,7 +13665,7 @@
         <v>44543</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="48" t="s">
         <v>358</v>
       </c>
@@ -13681,7 +13683,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44562</v>
       </c>
@@ -13705,7 +13707,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>68</v>
@@ -13724,7 +13726,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44593</v>
       </c>
@@ -13750,7 +13752,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>150</v>
@@ -13767,7 +13769,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44621</v>
       </c>
@@ -13793,7 +13795,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44652</v>
       </c>
@@ -13819,7 +13821,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>45</v>
@@ -13838,7 +13840,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44682</v>
       </c>
@@ -13858,7 +13860,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44713</v>
       </c>
@@ -13878,7 +13880,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44743</v>
       </c>
@@ -13898,7 +13900,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44774</v>
       </c>
@@ -13924,7 +13926,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44805</v>
       </c>
@@ -13950,7 +13952,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44835</v>
       </c>
@@ -13976,7 +13978,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44866</v>
       </c>
@@ -13996,7 +13998,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44896</v>
       </c>
@@ -14022,7 +14024,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="48" t="s">
         <v>363</v>
       </c>
@@ -14040,7 +14042,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="49"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44927</v>
       </c>
@@ -14060,7 +14062,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44958</v>
       </c>
@@ -14086,7 +14088,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>45</v>
@@ -14108,7 +14110,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>44986</v>
       </c>
@@ -14134,31 +14136,37 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45017</v>
       </c>
       <c r="B553" s="20"/>
-      <c r="C553" s="13"/>
+      <c r="C553" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D553" s="39"/>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
-      <c r="G553" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G553" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H553" s="39"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45047</v>
       </c>
-      <c r="B554" s="20"/>
+      <c r="B554" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="C554" s="13"/>
-      <c r="D554" s="39"/>
+      <c r="D554" s="39">
+        <v>2</v>
+      </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
       <c r="G554" s="42" t="str">
@@ -14168,9 +14176,11 @@
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
-      <c r="K554" s="20"/>
-    </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K554" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>45078</v>
       </c>
@@ -14188,7 +14198,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>45108</v>
       </c>
@@ -14206,7 +14216,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>45139</v>
       </c>
@@ -14224,7 +14234,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>45170</v>
       </c>
@@ -14242,7 +14252,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>45200</v>
       </c>
@@ -14260,7 +14270,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>45231</v>
       </c>
@@ -14278,7 +14288,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>45261</v>
       </c>
@@ -14296,7 +14306,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>45292</v>
       </c>
@@ -14314,7 +14324,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>45323</v>
       </c>
@@ -14332,7 +14342,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>45352</v>
       </c>
@@ -14350,7 +14360,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>45383</v>
       </c>
@@ -14368,7 +14378,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45413</v>
       </c>
@@ -14386,7 +14396,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>45444</v>
       </c>
@@ -14404,7 +14414,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45474</v>
       </c>
@@ -14422,7 +14432,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45505</v>
       </c>
@@ -14440,7 +14450,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>45536</v>
       </c>
@@ -14458,7 +14468,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45566</v>
       </c>
@@ -14476,7 +14486,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>45597</v>
       </c>
@@ -14494,7 +14504,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>45627</v>
       </c>
@@ -14512,7 +14522,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>45658</v>
       </c>
@@ -14530,7 +14540,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45689</v>
       </c>
@@ -14548,7 +14558,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>45717</v>
       </c>
@@ -14566,7 +14576,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>45748</v>
       </c>
@@ -14584,7 +14594,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>45778</v>
       </c>
@@ -14602,7 +14612,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45809</v>
       </c>
@@ -14620,7 +14630,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>45839</v>
       </c>
@@ -14638,7 +14648,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>45870</v>
       </c>
@@ -14656,7 +14666,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>45901</v>
       </c>
@@ -14674,7 +14684,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>45931</v>
       </c>
@@ -14692,7 +14702,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>45962</v>
       </c>
@@ -14710,7 +14720,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>45992</v>
       </c>
@@ -14728,7 +14738,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>46023</v>
       </c>
@@ -14746,7 +14756,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>46054</v>
       </c>
@@ -14764,7 +14774,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>46082</v>
       </c>
@@ -14782,7 +14792,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>46113</v>
       </c>
@@ -14800,7 +14810,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>46143</v>
       </c>
@@ -14818,7 +14828,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>46174</v>
       </c>
@@ -14836,7 +14846,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>46204</v>
       </c>
@@ -14854,7 +14864,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>46235</v>
       </c>
@@ -14872,7 +14882,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>46266</v>
       </c>
@@ -14890,7 +14900,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>46296</v>
       </c>
@@ -14908,7 +14918,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>46327</v>
       </c>
@@ -14926,7 +14936,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>46357</v>
       </c>
@@ -14944,7 +14954,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>46388</v>
       </c>
@@ -14962,7 +14972,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>46419</v>
       </c>
@@ -14980,7 +14990,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>46447</v>
       </c>
@@ -14998,7 +15008,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>46478</v>
       </c>
@@ -15016,7 +15026,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>46508</v>
       </c>
@@ -15034,7 +15044,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>46539</v>
       </c>
@@ -15052,7 +15062,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>46569</v>
       </c>
@@ -15070,7 +15080,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>46600</v>
       </c>
@@ -15088,7 +15098,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>46631</v>
       </c>
@@ -15106,7 +15116,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>46661</v>
       </c>
@@ -15124,7 +15134,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>46692</v>
       </c>
@@ -15142,7 +15152,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>46722</v>
       </c>
@@ -15160,7 +15170,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>46753</v>
       </c>
@@ -15178,7 +15188,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>46784</v>
       </c>
@@ -15196,7 +15206,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>46813</v>
       </c>
@@ -15214,7 +15224,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>46844</v>
       </c>
@@ -15232,7 +15242,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>46874</v>
       </c>
@@ -15250,7 +15260,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>46905</v>
       </c>
@@ -15268,7 +15278,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>46935</v>
       </c>
@@ -15286,7 +15296,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>46966</v>
       </c>
@@ -15304,7 +15314,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>46997</v>
       </c>
@@ -15322,7 +15332,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>47027</v>
       </c>
@@ -15340,7 +15350,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>47058</v>
       </c>
@@ -15358,7 +15368,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>47088</v>
       </c>
@@ -15376,7 +15386,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>47119</v>
       </c>
@@ -15394,7 +15404,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>47150</v>
       </c>
@@ -15412,7 +15422,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>47178</v>
       </c>
@@ -15430,7 +15440,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>47209</v>
       </c>
@@ -15448,7 +15458,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>47239</v>
       </c>
@@ -15466,7 +15476,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <v>47270</v>
       </c>
@@ -15484,7 +15494,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>47300</v>
       </c>
@@ -15502,7 +15512,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>47331</v>
       </c>
@@ -15520,7 +15530,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>47362</v>
       </c>
@@ -15538,7 +15548,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>47392</v>
       </c>
@@ -15556,7 +15566,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>47423</v>
       </c>
@@ -15574,7 +15584,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <v>47453</v>
       </c>
@@ -15592,7 +15602,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>47484</v>
       </c>
@@ -15610,7 +15620,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>47515</v>
       </c>
@@ -15628,7 +15638,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>47543</v>
       </c>
@@ -15646,7 +15656,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>47574</v>
       </c>
@@ -15664,7 +15674,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>47604</v>
       </c>
@@ -15682,7 +15692,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>47635</v>
       </c>
@@ -15700,7 +15710,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>47665</v>
       </c>
@@ -15718,7 +15728,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <v>47696</v>
       </c>
@@ -15736,7 +15746,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
         <v>47727</v>
       </c>
@@ -15754,7 +15764,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>47757</v>
       </c>
@@ -15772,7 +15782,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>47788</v>
       </c>
@@ -15790,7 +15800,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>47818</v>
       </c>
@@ -15808,7 +15818,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>47849</v>
       </c>
@@ -15826,7 +15836,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>47880</v>
       </c>
@@ -15844,7 +15854,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
         <v>47908</v>
       </c>
@@ -15862,7 +15872,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>47939</v>
       </c>
@@ -15880,7 +15890,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>47969</v>
       </c>
@@ -15898,7 +15908,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>48000</v>
       </c>
@@ -15916,7 +15926,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>48030</v>
       </c>
@@ -15934,7 +15944,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>48061</v>
       </c>
@@ -15952,7 +15962,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>48092</v>
       </c>
@@ -15970,7 +15980,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>48122</v>
       </c>
@@ -15988,7 +15998,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16004,7 +16014,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16020,7 +16030,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16036,7 +16046,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16052,7 +16062,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16068,7 +16078,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16084,7 +16094,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -16100,7 +16110,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -16116,7 +16126,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -16132,7 +16142,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -16148,7 +16158,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -16164,7 +16174,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -16180,7 +16190,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -16196,7 +16206,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -16212,7 +16222,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -16228,7 +16238,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -16244,7 +16254,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -16260,7 +16270,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -16276,7 +16286,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -16292,7 +16302,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -16308,7 +16318,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -16324,7 +16334,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -16340,7 +16350,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -16356,7 +16366,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -16372,7 +16382,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -16388,7 +16398,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -16404,7 +16414,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -16420,7 +16430,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -16436,7 +16446,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -16452,7 +16462,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -16468,7 +16478,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -16484,7 +16494,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -16500,7 +16510,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -16516,7 +16526,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -16532,7 +16542,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -16548,7 +16558,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -16564,7 +16574,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -16580,7 +16590,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -16596,7 +16606,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -16612,7 +16622,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -16628,7 +16638,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -16644,7 +16654,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -16660,7 +16670,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -16676,7 +16686,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -16692,7 +16702,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -16708,7 +16718,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -16724,7 +16734,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -16740,7 +16750,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -16756,7 +16766,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -16772,7 +16782,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -16788,7 +16798,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -16804,7 +16814,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -16820,7 +16830,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -16836,7 +16846,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -16852,7 +16862,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -16868,7 +16878,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -16884,7 +16894,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -16900,7 +16910,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -16916,7 +16926,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -16932,7 +16942,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -16948,7 +16958,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -16964,7 +16974,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -16980,7 +16990,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -16996,7 +17006,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -17012,7 +17022,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -17028,7 +17038,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -17044,7 +17054,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -17060,7 +17070,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -17076,7 +17086,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -17092,7 +17102,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -17108,7 +17118,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -17124,7 +17134,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -17140,7 +17150,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -17156,7 +17166,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -17172,7 +17182,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -17188,7 +17198,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -17204,7 +17214,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -17220,7 +17230,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -17236,7 +17246,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -17252,7 +17262,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -17268,7 +17278,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -17284,7 +17294,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -17300,7 +17310,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -17316,7 +17326,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -17332,7 +17342,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -17348,7 +17358,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -17364,7 +17374,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -17380,7 +17390,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -17396,7 +17406,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -17412,7 +17422,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -17428,7 +17438,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -17444,7 +17454,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -17460,7 +17470,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -17476,7 +17486,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -17492,7 +17502,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -17508,7 +17518,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -17524,7 +17534,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -17540,7 +17550,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -17556,7 +17566,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -17572,7 +17582,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -17588,7 +17598,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -17604,7 +17614,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -17620,7 +17630,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -17636,7 +17646,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -17652,7 +17662,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -17668,7 +17678,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="41"/>
       <c r="B761" s="15"/>
       <c r="C761" s="42"/>
@@ -17699,10 +17709,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17725,28 +17735,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -17759,7 +17769,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17788,7 +17798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>24.11</v>
       </c>
@@ -17818,17 +17828,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17849,7 +17859,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17876,7 +17886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17902,7 +17912,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17928,7 +17938,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17954,7 +17964,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17980,7 +17990,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18006,7 +18016,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18032,7 +18042,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18058,7 +18068,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18078,7 +18088,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18098,7 +18108,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18118,7 +18128,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18139,7 +18149,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18160,7 +18170,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18181,7 +18191,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18202,7 +18212,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18223,7 +18233,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18244,7 +18254,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18265,7 +18275,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18286,7 +18296,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18307,7 +18317,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18328,7 +18338,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18349,7 +18359,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18370,7 +18380,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18391,7 +18401,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18412,7 +18422,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18433,7 +18443,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18454,7 +18464,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18475,7 +18485,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18496,7 +18506,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18517,7 +18527,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18538,7 +18548,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18547,7 +18557,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18556,7 +18566,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18565,7 +18575,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18574,7 +18584,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18583,7 +18593,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18592,7 +18602,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18601,7 +18611,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18610,7 +18620,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18619,7 +18629,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18628,7 +18638,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18637,7 +18647,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18646,7 +18656,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18655,7 +18665,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18664,7 +18674,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18673,7 +18683,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18682,7 +18692,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18691,7 +18701,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18700,7 +18710,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18709,7 +18719,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18718,7 +18728,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18727,7 +18737,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18736,7 +18746,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18745,7 +18755,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18754,7 +18764,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18763,7 +18773,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18772,7 +18782,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18781,7 +18791,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18790,7 +18800,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18799,7 +18809,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/ANGCAYA, ANA B..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="366">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1128,6 +1128,9 @@
   </si>
   <si>
     <t>5/18,19/2023</t>
+  </si>
+  <si>
+    <t>6/19-20/2023</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1831,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K761" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K762" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2157,12 +2160,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K761"/>
+  <dimension ref="A2:K762"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A546" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D555" sqref="D555"/>
+      <pane ySplit="5040" topLeftCell="A549" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K557" sqref="K557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2324,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.053999999999903</v>
+        <v>40.053999999999903</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2331,7 +2334,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>141.375</v>
+        <v>140.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14184,9 +14187,13 @@
       <c r="A555" s="40">
         <v>45078</v>
       </c>
-      <c r="B555" s="20"/>
+      <c r="B555" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="C555" s="13"/>
-      <c r="D555" s="39"/>
+      <c r="D555" s="39">
+        <v>2</v>
+      </c>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
       <c r="G555" s="42" t="str">
@@ -14196,13 +14203,15 @@
       <c r="H555" s="39"/>
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
-      <c r="K555" s="20"/>
+      <c r="K555" s="20" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B556" s="20"/>
+      <c r="A556" s="40"/>
+      <c r="B556" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
       <c r="E556" s="9"/>
@@ -14211,14 +14220,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H556" s="39"/>
+      <c r="H556" s="39">
+        <v>1</v>
+      </c>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
-      <c r="K556" s="20"/>
+      <c r="K556" s="49">
+        <v>45086</v>
+      </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -14236,7 +14249,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -14254,7 +14267,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -14272,7 +14285,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -14290,7 +14303,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -14308,7 +14321,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -14326,7 +14339,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -14344,7 +14357,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -14362,7 +14375,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -14380,7 +14393,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -14398,7 +14411,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -14416,7 +14429,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -14434,7 +14447,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -14452,7 +14465,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -14470,7 +14483,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -14488,7 +14501,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -14506,7 +14519,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14524,7 +14537,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14542,7 +14555,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14560,7 +14573,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14578,7 +14591,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14596,7 +14609,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14614,7 +14627,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14632,7 +14645,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14650,7 +14663,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14668,7 +14681,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14686,7 +14699,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14704,7 +14717,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14722,7 +14735,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14740,7 +14753,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -14758,7 +14771,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -14776,7 +14789,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -14794,7 +14807,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -14812,7 +14825,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -14830,7 +14843,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -14848,7 +14861,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -14866,7 +14879,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -14884,7 +14897,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -14902,7 +14915,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -14920,7 +14933,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -14938,7 +14951,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -14956,7 +14969,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -14974,7 +14987,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -14992,7 +15005,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15010,7 +15023,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15028,7 +15041,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15046,7 +15059,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15064,7 +15077,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15082,7 +15095,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15100,7 +15113,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15118,7 +15131,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15136,7 +15149,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15154,7 +15167,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15172,7 +15185,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15190,7 +15203,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15208,7 +15221,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15226,7 +15239,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -15244,7 +15257,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -15262,7 +15275,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -15280,7 +15293,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -15298,7 +15311,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -15316,7 +15329,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -15334,7 +15347,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -15352,7 +15365,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -15370,7 +15383,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -15388,7 +15401,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -15406,7 +15419,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -15424,7 +15437,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -15442,7 +15455,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -15460,7 +15473,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -15478,7 +15491,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -15496,7 +15509,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -15514,7 +15527,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -15532,7 +15545,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -15550,7 +15563,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -15568,7 +15581,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -15586,7 +15599,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -15604,7 +15617,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -15622,7 +15635,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -15640,7 +15653,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -15658,7 +15671,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -15676,7 +15689,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -15694,7 +15707,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -15712,7 +15725,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -15730,7 +15743,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -15748,7 +15761,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -15766,7 +15779,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -15784,7 +15797,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -15802,7 +15815,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -15820,7 +15833,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -15838,7 +15851,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -15856,7 +15869,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -15874,7 +15887,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -15892,7 +15905,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -15910,7 +15923,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -15928,7 +15941,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -15946,7 +15959,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -15964,7 +15977,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -15982,7 +15995,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -15999,7 +16012,9 @@
       <c r="K655" s="20"/>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" s="40"/>
+      <c r="A656" s="40">
+        <v>48122</v>
+      </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
       <c r="D656" s="39"/>
@@ -17679,20 +17694,36 @@
       <c r="K760" s="20"/>
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A761" s="41"/>
-      <c r="B761" s="15"/>
-      <c r="C761" s="42"/>
-      <c r="D761" s="43"/>
-      <c r="E761" s="51"/>
-      <c r="F761" s="15"/>
+      <c r="A761" s="40"/>
+      <c r="B761" s="20"/>
+      <c r="C761" s="13"/>
+      <c r="D761" s="39"/>
+      <c r="E761" s="9"/>
+      <c r="F761" s="20"/>
       <c r="G761" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H761" s="43"/>
-      <c r="I761" s="51"/>
-      <c r="J761" s="12"/>
-      <c r="K761" s="15"/>
+      <c r="H761" s="39"/>
+      <c r="I761" s="9"/>
+      <c r="J761" s="11"/>
+      <c r="K761" s="20"/>
+    </row>
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A762" s="41"/>
+      <c r="B762" s="15"/>
+      <c r="C762" s="42"/>
+      <c r="D762" s="43"/>
+      <c r="E762" s="51"/>
+      <c r="F762" s="15"/>
+      <c r="G762" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H762" s="43"/>
+      <c r="I762" s="51"/>
+      <c r="J762" s="12"/>
+      <c r="K762" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/ANGCAYA, ANA B..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDE3A1F-A4C2-4307-ABE3-C59C65423327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="367">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1131,12 +1132,15 @@
   </si>
   <si>
     <t>6/19-20/2023</t>
+  </si>
+  <si>
+    <t>8/8,9,10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1814,7 +1818,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1831,25 +1835,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K762" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K762" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2156,34 +2160,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K762"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="5040" topLeftCell="A549" activePane="bottomLeft"/>
+      <pane ySplit="5040" topLeftCell="A552" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K557" sqref="K557"/>
+      <selection pane="bottomLeft" activeCell="C558" sqref="C558"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2208,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2222,7 +2226,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2242,7 +2246,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2250,7 +2254,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2263,7 +2267,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2280,7 +2284,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2324,7 +2328,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.053999999999903</v>
+        <v>40.803999999999903</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2334,12 +2338,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>140.375</v>
+        <v>144.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2361,7 +2365,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36373</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>36376</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -2406,7 +2410,7 @@
         <v>36398</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -2423,7 +2427,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36404</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>48</v>
@@ -2468,7 +2472,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36434</v>
       </c>
@@ -2494,7 +2498,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>45</v>
@@ -2513,7 +2517,7 @@
         <v>36448</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
@@ -2530,7 +2534,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36465</v>
       </c>
@@ -2554,7 +2558,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>36495</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>52</v>
@@ -2602,7 +2606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>50</v>
@@ -2622,7 +2626,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -2640,7 +2644,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36526</v>
       </c>
@@ -2664,7 +2668,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>36557</v>
       </c>
@@ -2688,7 +2692,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36586</v>
       </c>
@@ -2712,7 +2716,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36617</v>
       </c>
@@ -2738,7 +2742,7 @@
         <v>36626</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>60</v>
@@ -2755,7 +2759,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36647</v>
       </c>
@@ -2781,7 +2785,7 @@
         <v>36664</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>52</v>
@@ -2800,7 +2804,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>62</v>
@@ -2817,7 +2821,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36678</v>
       </c>
@@ -2841,7 +2845,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>52</v>
@@ -2858,7 +2862,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>36708</v>
       </c>
@@ -2882,7 +2886,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36739</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>36753</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>45</v>
@@ -2923,7 +2927,7 @@
         <v>36766</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>65</v>
@@ -2940,7 +2944,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36770</v>
       </c>
@@ -2966,7 +2970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>47</v>
@@ -2985,7 +2989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>66</v>
@@ -3002,7 +3006,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36800</v>
       </c>
@@ -3026,7 +3030,7 @@
         <v>36826</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>67</v>
@@ -3043,7 +3047,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36831</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>36854</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>69</v>
@@ -3088,7 +3092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>49</v>
@@ -3107,7 +3111,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>68</v>
@@ -3126,7 +3130,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -3143,7 +3147,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36861</v>
       </c>
@@ -3167,7 +3171,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>77</v>
       </c>
@@ -3185,7 +3189,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36892</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>86</v>
@@ -3230,7 +3234,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>36923</v>
       </c>
@@ -3254,7 +3258,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>79</v>
@@ -3271,7 +3275,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36951</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>81</v>
@@ -3316,7 +3320,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36982</v>
       </c>
@@ -3340,7 +3344,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>37012</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>37042</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>49</v>
@@ -3383,7 +3387,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>63</v>
@@ -3402,7 +3406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37043</v>
       </c>
@@ -3428,7 +3432,7 @@
         <v>37068</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>83</v>
@@ -3445,7 +3449,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>37073</v>
       </c>
@@ -3471,7 +3475,7 @@
         <v>37074</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>84</v>
@@ -3488,7 +3492,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37104</v>
       </c>
@@ -3514,7 +3518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>85</v>
@@ -3531,7 +3535,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>37135</v>
       </c>
@@ -3557,7 +3561,7 @@
         <v>37155</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>91</v>
@@ -3574,7 +3578,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>37165</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>37194</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>92</v>
@@ -3617,7 +3621,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>37196</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>37211</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>65</v>
@@ -3660,7 +3664,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37226</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>37245</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>93</v>
@@ -3706,7 +3710,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="48" t="s">
         <v>94</v>
       </c>
@@ -3724,7 +3728,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37257</v>
       </c>
@@ -3750,7 +3754,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>95</v>
@@ -3767,7 +3771,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37288</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>37298</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>80</v>
@@ -3814,7 +3818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -3831,7 +3835,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37316</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>37347</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>97</v>
@@ -3874,7 +3878,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37347</v>
       </c>
@@ -3902,7 +3906,7 @@
         <v>37372</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>78</v>
@@ -3921,7 +3925,7 @@
         <v>37379</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>98</v>
@@ -3938,7 +3942,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>37377</v>
       </c>
@@ -3966,7 +3970,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>101</v>
@@ -3983,7 +3987,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37408</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>37424</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37438</v>
       </c>
@@ -4029,7 +4033,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>37469</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>37477</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>102</v>
@@ -4074,7 +4078,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -4091,7 +4095,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37500</v>
       </c>
@@ -4117,7 +4121,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>78</v>
@@ -4136,7 +4140,7 @@
         <v>37516</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>78</v>
@@ -4155,7 +4159,7 @@
         <v>37526</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>104</v>
@@ -4174,7 +4178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>37530</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>37558</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37561</v>
       </c>
@@ -4224,7 +4228,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>37591</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>37619</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>109</v>
       </c>
@@ -4268,7 +4272,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>37622</v>
       </c>
@@ -4294,7 +4298,7 @@
         <v>37650</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37653</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>37663</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>111</v>
@@ -4337,7 +4341,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37681</v>
       </c>
@@ -4361,7 +4365,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>37712</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>37722</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>69</v>
@@ -4406,7 +4410,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>113</v>
@@ -4423,7 +4427,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37742</v>
       </c>
@@ -4449,7 +4453,7 @@
         <v>37757</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>45</v>
@@ -4468,7 +4472,7 @@
         <v>37748</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>114</v>
@@ -4485,7 +4489,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37773</v>
       </c>
@@ -4511,7 +4515,7 @@
         <v>37799</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37803</v>
       </c>
@@ -4535,7 +4539,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>37834</v>
       </c>
@@ -4561,7 +4565,7 @@
         <v>37862</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>116</v>
@@ -4578,7 +4582,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37865</v>
       </c>
@@ -4604,7 +4608,7 @@
         <v>37873</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>52</v>
@@ -4623,7 +4627,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>119</v>
@@ -4640,7 +4644,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37895</v>
       </c>
@@ -4666,7 +4670,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>120</v>
@@ -4683,7 +4687,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37926</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>123</v>
@@ -4726,7 +4730,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>37956</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>121</v>
@@ -4774,7 +4778,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>128</v>
       </c>
@@ -4792,7 +4796,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>37987</v>
       </c>
@@ -4818,7 +4822,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>129</v>
@@ -4837,7 +4841,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>130</v>
@@ -4854,7 +4858,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>38018</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>38021</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>131</v>
@@ -4897,7 +4901,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>38047</v>
       </c>
@@ -4923,7 +4927,7 @@
         <v>38047</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>132</v>
@@ -4940,7 +4944,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>38078</v>
       </c>
@@ -4966,7 +4970,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>38108</v>
       </c>
@@ -4990,7 +4994,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>38139</v>
       </c>
@@ -5016,7 +5020,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>38169</v>
       </c>
@@ -5042,7 +5046,7 @@
         <v>38183</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>136</v>
@@ -5061,7 +5065,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38200</v>
       </c>
@@ -5087,7 +5091,7 @@
         <v>38209</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>139</v>
@@ -5106,7 +5110,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38231</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>52</v>
@@ -5153,7 +5157,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>47</v>
@@ -5176,7 +5180,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>140</v>
@@ -5193,7 +5197,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>38261</v>
       </c>
@@ -5219,7 +5223,7 @@
         <v>38272</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>141</v>
@@ -5234,7 +5238,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>38292</v>
       </c>
@@ -5258,7 +5262,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>143</v>
@@ -5277,7 +5281,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>38322</v>
       </c>
@@ -5297,7 +5301,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="48" t="s">
         <v>149</v>
       </c>
@@ -5315,7 +5319,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>38353</v>
       </c>
@@ -5341,7 +5345,7 @@
         <v>38433</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>38384</v>
       </c>
@@ -5361,7 +5365,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38412</v>
       </c>
@@ -5383,7 +5387,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>151</v>
@@ -5400,7 +5404,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38443</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>152</v>
@@ -5443,7 +5447,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38473</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>38485</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>153</v>
@@ -5488,7 +5492,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>156</v>
@@ -5505,7 +5509,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>38504</v>
       </c>
@@ -5529,7 +5533,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>45</v>
@@ -5548,7 +5552,7 @@
         <v>38532</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>157</v>
@@ -5565,7 +5569,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38534</v>
       </c>
@@ -5589,7 +5593,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>38565</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>160</v>
@@ -5634,7 +5638,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38596</v>
       </c>
@@ -5662,7 +5666,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B164" s="1" t="s">
         <v>161</v>
       </c>
@@ -5670,7 +5674,7 @@
         <v>1.0669999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38626</v>
       </c>
@@ -5694,7 +5698,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>159</v>
@@ -5711,7 +5715,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>38657</v>
       </c>
@@ -5739,7 +5743,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>162</v>
@@ -5756,7 +5760,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>38687</v>
       </c>
@@ -5782,7 +5786,7 @@
         <v>38692</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>47</v>
@@ -5806,7 +5810,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>104</v>
@@ -5830,7 +5834,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>163</v>
@@ -5852,7 +5856,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="48" t="s">
         <v>169</v>
       </c>
@@ -5870,7 +5874,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>38718</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>38747</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>170</v>
@@ -5911,7 +5915,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38749</v>
       </c>
@@ -5939,7 +5943,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>52</v>
@@ -5960,7 +5964,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>173</v>
@@ -5977,7 +5981,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>38777</v>
       </c>
@@ -6005,7 +6009,7 @@
         <v>38792</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>47</v>
@@ -6026,7 +6030,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>175</v>
@@ -6045,7 +6049,7 @@
       </c>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>38808</v>
       </c>
@@ -6071,7 +6075,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>45</v>
@@ -6090,7 +6094,7 @@
         <v>38827</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>151</v>
@@ -6107,7 +6111,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>52</v>
@@ -6128,7 +6132,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>150</v>
@@ -6145,7 +6149,7 @@
         <v>38868</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>38838</v>
       </c>
@@ -6173,7 +6177,7 @@
         <v>38866</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>150</v>
@@ -6188,7 +6192,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>176</v>
@@ -6207,7 +6211,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>38869</v>
       </c>
@@ -6235,7 +6239,7 @@
         <v>38877</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>78</v>
@@ -6254,7 +6258,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>177</v>
@@ -6273,7 +6277,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>178</v>
@@ -6294,7 +6298,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>38899</v>
       </c>
@@ -6320,7 +6324,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>45</v>
@@ -6339,7 +6343,7 @@
         <v>38946</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>180</v>
@@ -6356,7 +6360,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>38930</v>
       </c>
@@ -6382,7 +6386,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>38961</v>
       </c>
@@ -6408,7 +6412,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>45</v>
@@ -6427,7 +6431,7 @@
         <v>38985</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>187</v>
@@ -6446,7 +6450,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>38991</v>
       </c>
@@ -6470,7 +6474,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>39022</v>
       </c>
@@ -6496,7 +6500,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>47</v>
@@ -6519,7 +6523,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>49</v>
@@ -6538,7 +6542,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>189</v>
@@ -6557,7 +6561,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>39052</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>78</v>
@@ -6607,7 +6611,7 @@
         <v>39075</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>195</v>
@@ -6624,7 +6628,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="49"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="48" t="s">
         <v>194</v>
       </c>
@@ -6642,7 +6646,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>39083</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>39093</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>150</v>
@@ -6685,7 +6689,7 @@
         <v>39111</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>69</v>
@@ -6704,7 +6708,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>196</v>
@@ -6721,7 +6725,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>39114</v>
       </c>
@@ -6747,7 +6751,7 @@
         <v>39132</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>136</v>
@@ -6764,7 +6768,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>39142</v>
       </c>
@@ -6790,7 +6794,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>197</v>
@@ -6807,7 +6811,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>39173</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>200</v>
@@ -6852,7 +6856,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>39203</v>
       </c>
@@ -6876,7 +6880,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>39234</v>
       </c>
@@ -6902,7 +6906,7 @@
         <v>39234</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>45</v>
@@ -6921,7 +6925,7 @@
         <v>39251</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>78</v>
@@ -6944,7 +6948,7 @@
         <v>39253</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>150</v>
@@ -6961,7 +6965,7 @@
         <v>39269</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>202</v>
@@ -6980,7 +6984,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39264</v>
       </c>
@@ -7004,7 +7008,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>39295</v>
       </c>
@@ -7028,7 +7032,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39326</v>
       </c>
@@ -7054,7 +7058,7 @@
         <v>39329</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>45</v>
@@ -7073,7 +7077,7 @@
         <v>39353</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>205</v>
@@ -7090,7 +7094,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>39356</v>
       </c>
@@ -7116,7 +7120,7 @@
         <v>39378</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>69</v>
@@ -7135,7 +7139,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>206</v>
@@ -7152,7 +7156,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>39387</v>
       </c>
@@ -7178,7 +7182,7 @@
         <v>39395</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>52</v>
@@ -7197,7 +7201,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>210</v>
@@ -7214,7 +7218,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>39417</v>
       </c>
@@ -7238,7 +7242,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>212</v>
@@ -7255,7 +7259,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="48" t="s">
         <v>211</v>
       </c>
@@ -7273,7 +7277,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39448</v>
       </c>
@@ -7297,7 +7301,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="41">
         <v>39479</v>
       </c>
@@ -7323,7 +7327,7 @@
         <v>39482</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>69</v>
@@ -7345,7 +7349,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>45</v>
@@ -7367,7 +7371,7 @@
         <v>39504</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>214</v>
@@ -7389,7 +7393,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="41">
         <v>39508</v>
       </c>
@@ -7415,7 +7419,7 @@
         <v>39517</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>78</v>
@@ -7437,7 +7441,7 @@
         <v>39518</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>47</v>
@@ -7459,7 +7463,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>78</v>
@@ -7483,7 +7487,7 @@
         <v>39538</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>215</v>
@@ -7505,7 +7509,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="41">
         <v>39539</v>
       </c>
@@ -7533,7 +7537,7 @@
         <v>39561</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>45</v>
@@ -7559,7 +7563,7 @@
         <v>39567</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="41">
         <v>39569</v>
       </c>
@@ -7585,7 +7589,7 @@
         <v>39581</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>45</v>
@@ -7607,7 +7611,7 @@
         <v>39583</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>150</v>
@@ -7627,7 +7631,7 @@
         <v>39619</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>217</v>
@@ -7647,7 +7651,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="41">
         <v>39600</v>
       </c>
@@ -7673,7 +7677,7 @@
         <v>39624</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>220</v>
@@ -7695,7 +7699,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="41">
         <v>39630</v>
       </c>
@@ -7721,7 +7725,7 @@
         <v>39643</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>221</v>
@@ -7743,7 +7747,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="41">
         <v>39661</v>
       </c>
@@ -7767,7 +7771,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="41">
         <v>39692</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>39707</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>45</v>
@@ -7815,7 +7819,7 @@
         <v>39720</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>223</v>
@@ -7837,7 +7841,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="41">
         <v>39722</v>
       </c>
@@ -7863,7 +7867,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>224</v>
@@ -7885,7 +7889,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="41">
         <v>39753</v>
       </c>
@@ -7915,7 +7919,7 @@
         <v>39773</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>225</v>
@@ -7937,7 +7941,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>45</v>
@@ -7959,7 +7963,7 @@
         <v>39778</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>226</v>
@@ -7979,7 +7983,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="41">
         <v>39783</v>
       </c>
@@ -8003,7 +8007,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="48" t="s">
         <v>229</v>
       </c>
@@ -8021,7 +8025,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>39814</v>
       </c>
@@ -8045,7 +8049,7 @@
         <v>39818</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>150</v>
@@ -8062,7 +8066,7 @@
         <v>39832</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>150</v>
@@ -8079,7 +8083,7 @@
         <v>39836</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>230</v>
@@ -8098,7 +8102,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>232</v>
@@ -8115,7 +8119,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>39845</v>
       </c>
@@ -8141,7 +8145,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>129</v>
@@ -8162,7 +8166,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>233</v>
@@ -8179,7 +8183,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>39873</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>78</v>
@@ -8228,7 +8232,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>226</v>
@@ -8249,7 +8253,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>39904</v>
       </c>
@@ -8275,7 +8279,7 @@
         <v>39906</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -8294,7 +8298,7 @@
         <v>39911</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>45</v>
@@ -8313,7 +8317,7 @@
         <v>39919</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>69</v>
@@ -8332,7 +8336,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>234</v>
@@ -8353,7 +8357,7 @@
       </c>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>39934</v>
       </c>
@@ -8379,7 +8383,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>235</v>
@@ -8400,7 +8404,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>39965</v>
       </c>
@@ -8424,7 +8428,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>39995</v>
       </c>
@@ -8450,7 +8454,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>40026</v>
       </c>
@@ -8476,7 +8480,7 @@
         <v>40049</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>238</v>
@@ -8495,7 +8499,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>40057</v>
       </c>
@@ -8521,7 +8525,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40087</v>
       </c>
@@ -8547,7 +8551,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>69</v>
@@ -8566,7 +8570,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>68</v>
@@ -8585,7 +8589,7 @@
         <v>40130</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>245</v>
@@ -8602,7 +8606,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>40118</v>
       </c>
@@ -8626,7 +8630,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>40148</v>
       </c>
@@ -8652,7 +8656,7 @@
         <v>40148</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>45</v>
@@ -8671,7 +8675,7 @@
         <v>40158</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>45</v>
@@ -8693,7 +8697,7 @@
         <v>40165</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>247</v>
@@ -8715,7 +8719,7 @@
         <v>40169</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="48" t="s">
         <v>249</v>
       </c>
@@ -8733,7 +8737,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>40179</v>
       </c>
@@ -8757,7 +8761,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>45</v>
@@ -8776,7 +8780,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>251</v>
@@ -8795,7 +8799,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>40210</v>
       </c>
@@ -8821,7 +8825,7 @@
         <v>40218</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>252</v>
@@ -8838,7 +8842,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>40238</v>
       </c>
@@ -8864,7 +8868,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>40269</v>
       </c>
@@ -8890,7 +8894,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>45</v>
@@ -8909,7 +8913,7 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>188</v>
@@ -8926,7 +8930,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>40299</v>
       </c>
@@ -8952,7 +8956,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>255</v>
@@ -8969,7 +8973,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="49"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>40330</v>
       </c>
@@ -8995,7 +8999,7 @@
         <v>40337</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>256</v>
@@ -9012,7 +9016,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>40360</v>
       </c>
@@ -9038,7 +9042,7 @@
         <v>40387</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>257</v>
@@ -9055,7 +9059,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>40391</v>
       </c>
@@ -9081,7 +9085,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>45</v>
@@ -9100,7 +9104,7 @@
         <v>40410</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>258</v>
@@ -9117,7 +9121,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>40422</v>
       </c>
@@ -9143,7 +9147,7 @@
         <v>40434</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>78</v>
@@ -9164,7 +9168,7 @@
         <v>40438</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>259</v>
@@ -9181,7 +9185,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>40452</v>
       </c>
@@ -9205,7 +9209,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>40483</v>
       </c>
@@ -9231,7 +9235,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>261</v>
@@ -9248,7 +9252,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>40513</v>
       </c>
@@ -9274,7 +9278,7 @@
         <v>40529</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>45</v>
@@ -9298,7 +9302,7 @@
         <v>40535</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>262</v>
@@ -9320,7 +9324,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="48" t="s">
         <v>264</v>
       </c>
@@ -9338,7 +9342,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>40544</v>
       </c>
@@ -9362,7 +9366,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>261</v>
@@ -9379,7 +9383,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>40575</v>
       </c>
@@ -9405,7 +9409,7 @@
         <v>40578</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>268</v>
@@ -9422,7 +9426,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>40603</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>40604</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>150</v>
@@ -9465,7 +9469,7 @@
         <v>40662</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>269</v>
@@ -9482,7 +9486,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>40634</v>
       </c>
@@ -9506,7 +9510,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>40664</v>
       </c>
@@ -9532,7 +9536,7 @@
         <v>40673</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>271</v>
@@ -9549,7 +9553,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>40695</v>
       </c>
@@ -9573,7 +9577,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40725</v>
       </c>
@@ -9599,7 +9603,7 @@
         <v>40763</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>274</v>
@@ -9616,7 +9620,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>40756</v>
       </c>
@@ -9640,7 +9644,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>40787</v>
       </c>
@@ -9664,7 +9668,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>40817</v>
       </c>
@@ -9688,7 +9692,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>40848</v>
       </c>
@@ -9714,7 +9718,7 @@
         <v>40864</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>204</v>
@@ -9731,7 +9735,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>40878</v>
       </c>
@@ -9757,7 +9761,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>278</v>
@@ -9777,7 +9781,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="48" t="s">
         <v>280</v>
       </c>
@@ -9795,7 +9799,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40909</v>
       </c>
@@ -9819,7 +9823,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>40940</v>
       </c>
@@ -9843,7 +9847,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>40969</v>
       </c>
@@ -9867,7 +9871,7 @@
         <v>40622</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>41000</v>
       </c>
@@ -9891,7 +9895,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>41030</v>
       </c>
@@ -9915,7 +9919,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>41061</v>
       </c>
@@ -9939,7 +9943,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>41091</v>
       </c>
@@ -9963,7 +9967,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>41122</v>
       </c>
@@ -9987,7 +9991,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>41153</v>
       </c>
@@ -10011,7 +10015,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>273</v>
@@ -10030,7 +10034,7 @@
         <v>40818</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>284</v>
@@ -10047,7 +10051,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>41183</v>
       </c>
@@ -10073,7 +10077,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>273</v>
@@ -10092,7 +10096,7 @@
         <v>40847</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>284</v>
@@ -10109,7 +10113,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>41214</v>
       </c>
@@ -10135,7 +10139,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>285</v>
@@ -10154,7 +10158,7 @@
         <v>40896</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>41244</v>
       </c>
@@ -10180,7 +10184,7 @@
         <v>40905</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>286</v>
@@ -10200,7 +10204,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="48" t="s">
         <v>288</v>
       </c>
@@ -10218,7 +10222,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>41275</v>
       </c>
@@ -10242,7 +10246,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>41306</v>
       </c>
@@ -10262,7 +10266,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>41334</v>
       </c>
@@ -10286,7 +10290,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>41365</v>
       </c>
@@ -10310,7 +10314,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <v>41395</v>
       </c>
@@ -10334,7 +10338,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>291</v>
@@ -10351,7 +10355,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>41426</v>
       </c>
@@ -10375,7 +10379,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>41456</v>
       </c>
@@ -10399,7 +10403,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>41487</v>
       </c>
@@ -10423,7 +10427,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>41518</v>
       </c>
@@ -10447,7 +10451,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>41548</v>
       </c>
@@ -10471,7 +10475,7 @@
         <v>41565</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>296</v>
@@ -10488,7 +10492,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>41579</v>
       </c>
@@ -10512,7 +10516,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>41609</v>
       </c>
@@ -10536,7 +10540,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>298</v>
@@ -10558,7 +10562,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>299</v>
@@ -10578,7 +10582,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="48" t="s">
         <v>302</v>
       </c>
@@ -10596,7 +10600,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>41640</v>
       </c>
@@ -10620,7 +10624,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>41671</v>
       </c>
@@ -10644,7 +10648,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>41699</v>
       </c>
@@ -10668,7 +10672,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>41730</v>
       </c>
@@ -10692,7 +10696,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>41760</v>
       </c>
@@ -10716,7 +10720,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>41791</v>
       </c>
@@ -10740,7 +10744,7 @@
         <v>41810</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>307</v>
@@ -10757,7 +10761,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>41821</v>
       </c>
@@ -10781,7 +10785,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>41852</v>
       </c>
@@ -10805,7 +10809,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>41883</v>
       </c>
@@ -10829,7 +10833,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>41913</v>
       </c>
@@ -10853,7 +10857,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>311</v>
@@ -10870,7 +10874,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>41944</v>
       </c>
@@ -10896,7 +10900,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>312</v>
@@ -10913,7 +10917,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>41974</v>
       </c>
@@ -10937,7 +10941,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="48" t="s">
         <v>314</v>
       </c>
@@ -10955,7 +10959,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>42005</v>
       </c>
@@ -10979,7 +10983,7 @@
         <v>42016</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>150</v>
@@ -10996,7 +11000,7 @@
         <v>42048</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>315</v>
@@ -11013,7 +11017,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>42036</v>
       </c>
@@ -11037,7 +11041,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>42064</v>
       </c>
@@ -11061,7 +11065,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>42095</v>
       </c>
@@ -11085,7 +11089,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>42125</v>
       </c>
@@ -11109,7 +11113,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>42156</v>
       </c>
@@ -11135,7 +11139,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>238</v>
@@ -11152,7 +11156,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>42186</v>
       </c>
@@ -11176,7 +11180,7 @@
         <v>42216</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>320</v>
@@ -11193,7 +11197,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>42217</v>
       </c>
@@ -11217,7 +11221,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>42248</v>
       </c>
@@ -11241,7 +11245,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>42278</v>
       </c>
@@ -11265,7 +11269,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>42309</v>
       </c>
@@ -11291,7 +11295,7 @@
         <v>42367</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20" t="s">
         <v>323</v>
@@ -11308,7 +11312,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>42339</v>
       </c>
@@ -11334,7 +11338,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>324</v>
@@ -11354,7 +11358,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="48" t="s">
         <v>327</v>
       </c>
@@ -11372,7 +11376,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>42370</v>
       </c>
@@ -11396,7 +11400,7 @@
         <v>42377</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>150</v>
@@ -11413,7 +11417,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>150</v>
@@ -11430,7 +11434,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>328</v>
@@ -11447,7 +11451,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>42401</v>
       </c>
@@ -11471,7 +11475,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>42430</v>
       </c>
@@ -11497,7 +11501,7 @@
         <v>42458</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>330</v>
@@ -11514,7 +11518,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>42461</v>
       </c>
@@ -11540,7 +11544,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>45</v>
@@ -11559,7 +11563,7 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>45</v>
@@ -11578,7 +11582,7 @@
         <v>42493</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>332</v>
@@ -11595,7 +11599,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>42491</v>
       </c>
@@ -11621,7 +11625,7 @@
         <v>42502</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>45</v>
@@ -11640,7 +11644,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>333</v>
@@ -11659,7 +11663,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>42522</v>
       </c>
@@ -11685,7 +11689,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>45</v>
@@ -11704,7 +11708,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>45</v>
@@ -11723,7 +11727,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>334</v>
@@ -11740,7 +11744,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>42552</v>
       </c>
@@ -11766,7 +11770,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>42583</v>
       </c>
@@ -11792,7 +11796,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>42614</v>
       </c>
@@ -11818,7 +11822,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>42644</v>
       </c>
@@ -11844,7 +11848,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>68</v>
@@ -11863,7 +11867,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>338</v>
@@ -11882,7 +11886,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>42675</v>
       </c>
@@ -11908,7 +11912,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>42705</v>
       </c>
@@ -11934,7 +11938,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>342</v>
@@ -11951,7 +11955,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="49"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="48" t="s">
         <v>341</v>
       </c>
@@ -11969,7 +11973,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>42736</v>
       </c>
@@ -11991,7 +11995,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>42767</v>
       </c>
@@ -12015,7 +12019,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>42795</v>
       </c>
@@ -12041,7 +12045,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>42826</v>
       </c>
@@ -12061,7 +12065,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>42856</v>
       </c>
@@ -12087,7 +12091,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>150</v>
@@ -12104,7 +12108,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>42887</v>
       </c>
@@ -12124,7 +12128,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>42917</v>
       </c>
@@ -12144,7 +12148,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>42948</v>
       </c>
@@ -12168,7 +12172,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>42979</v>
       </c>
@@ -12188,7 +12192,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43009</v>
       </c>
@@ -12208,7 +12212,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43040</v>
       </c>
@@ -12228,7 +12232,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>43070</v>
       </c>
@@ -12252,7 +12256,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="48" t="s">
         <v>345</v>
       </c>
@@ -12270,7 +12274,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43101</v>
       </c>
@@ -12294,7 +12298,7 @@
         <v>43124</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43132</v>
       </c>
@@ -12314,7 +12318,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43160</v>
       </c>
@@ -12338,7 +12342,7 @@
         <v>43165</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43191</v>
       </c>
@@ -12364,7 +12368,7 @@
         <v>43196</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43221</v>
       </c>
@@ -12390,7 +12394,7 @@
         <v>43271</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>45</v>
@@ -12409,7 +12413,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43252</v>
       </c>
@@ -12429,7 +12433,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43282</v>
       </c>
@@ -12455,7 +12459,7 @@
         <v>43308</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43313</v>
       </c>
@@ -12481,7 +12485,7 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43344</v>
       </c>
@@ -12505,7 +12509,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>45</v>
@@ -12524,7 +12528,7 @@
         <v>43363</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43374</v>
       </c>
@@ -12544,7 +12548,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43405</v>
       </c>
@@ -12570,7 +12574,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>43435</v>
       </c>
@@ -12590,7 +12594,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="48" t="s">
         <v>346</v>
       </c>
@@ -12608,7 +12612,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>43466</v>
       </c>
@@ -12632,7 +12636,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>43497</v>
       </c>
@@ -12656,7 +12660,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>45</v>
@@ -12675,7 +12679,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>43525</v>
       </c>
@@ -12701,7 +12705,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>43556</v>
       </c>
@@ -12727,7 +12731,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
         <v>49</v>
@@ -12746,7 +12750,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>43586</v>
       </c>
@@ -12772,7 +12776,7 @@
         <v>43616</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>43617</v>
       </c>
@@ -12796,7 +12800,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>68</v>
@@ -12817,7 +12821,7 @@
         <v>43644</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>43647</v>
       </c>
@@ -12837,7 +12841,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>43678</v>
       </c>
@@ -12857,7 +12861,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>43709</v>
       </c>
@@ -12883,7 +12887,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>43739</v>
       </c>
@@ -12903,7 +12907,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>43770</v>
       </c>
@@ -12923,7 +12927,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>43800</v>
       </c>
@@ -12949,7 +12953,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>45</v>
@@ -12968,7 +12972,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="48" t="s">
         <v>349</v>
       </c>
@@ -12986,7 +12990,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>43831</v>
       </c>
@@ -13006,7 +13010,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>43862</v>
       </c>
@@ -13030,7 +13034,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>49</v>
@@ -13047,7 +13051,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>150</v>
@@ -13064,7 +13068,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>43891</v>
       </c>
@@ -13084,7 +13088,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>43922</v>
       </c>
@@ -13104,7 +13108,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>43952</v>
       </c>
@@ -13124,7 +13128,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>43983</v>
       </c>
@@ -13148,7 +13152,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>45</v>
@@ -13165,7 +13169,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44013</v>
       </c>
@@ -13185,7 +13189,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>44044</v>
       </c>
@@ -13205,7 +13209,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44075</v>
       </c>
@@ -13225,7 +13229,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44105</v>
       </c>
@@ -13245,7 +13249,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44136</v>
       </c>
@@ -13265,7 +13269,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>44166</v>
       </c>
@@ -13289,7 +13293,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="48" t="s">
         <v>354</v>
       </c>
@@ -13307,7 +13311,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44197</v>
       </c>
@@ -13333,7 +13337,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>150</v>
@@ -13350,7 +13354,7 @@
         <v>44209</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>69</v>
@@ -13369,7 +13373,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>68</v>
@@ -13388,7 +13392,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>150</v>
@@ -13405,7 +13409,7 @@
         <v>44232</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44228</v>
       </c>
@@ -13431,7 +13435,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <v>44256</v>
       </c>
@@ -13457,7 +13461,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>44287</v>
       </c>
@@ -13477,7 +13481,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>44317</v>
       </c>
@@ -13497,7 +13501,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>44348</v>
       </c>
@@ -13517,7 +13521,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <v>44378</v>
       </c>
@@ -13537,7 +13541,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>44409</v>
       </c>
@@ -13559,7 +13563,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <v>44440</v>
       </c>
@@ -13579,7 +13583,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>44470</v>
       </c>
@@ -13599,7 +13603,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>44501</v>
       </c>
@@ -13625,7 +13629,7 @@
         <v>44505</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>142</v>
@@ -13644,7 +13648,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>44531</v>
       </c>
@@ -13668,7 +13672,7 @@
         <v>44543</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="48" t="s">
         <v>358</v>
       </c>
@@ -13686,7 +13690,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44562</v>
       </c>
@@ -13710,7 +13714,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>68</v>
@@ -13729,7 +13733,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>44593</v>
       </c>
@@ -13755,7 +13759,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40"/>
       <c r="B536" s="20" t="s">
         <v>150</v>
@@ -13772,7 +13776,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <v>44621</v>
       </c>
@@ -13798,7 +13802,7 @@
         <v>44638</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44652</v>
       </c>
@@ -13824,7 +13828,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>45</v>
@@ -13843,7 +13847,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44682</v>
       </c>
@@ -13863,7 +13867,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>44713</v>
       </c>
@@ -13883,7 +13887,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>44743</v>
       </c>
@@ -13903,7 +13907,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>44774</v>
       </c>
@@ -13929,7 +13933,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>44805</v>
       </c>
@@ -13955,7 +13959,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>44835</v>
       </c>
@@ -13981,7 +13985,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>44866</v>
       </c>
@@ -14001,7 +14005,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>44896</v>
       </c>
@@ -14027,7 +14031,7 @@
         <v>44926</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="48" t="s">
         <v>363</v>
       </c>
@@ -14045,7 +14049,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="49"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>44927</v>
       </c>
@@ -14065,7 +14069,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>44958</v>
       </c>
@@ -14091,7 +14095,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>45</v>
@@ -14113,7 +14117,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>44986</v>
       </c>
@@ -14139,7 +14143,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>45017</v>
       </c>
@@ -14159,22 +14163,24 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>45047</v>
       </c>
       <c r="B554" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C554" s="13"/>
+      <c r="C554" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D554" s="39">
         <v>2</v>
       </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
-      <c r="G554" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G554" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
@@ -14183,22 +14189,24 @@
         <v>364</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>45078</v>
       </c>
       <c r="B555" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C555" s="13"/>
+      <c r="C555" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D555" s="39">
         <v>2</v>
       </c>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G555" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H555" s="39"/>
       <c r="I555" s="9"/>
@@ -14207,7 +14215,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>45</v>
@@ -14229,25 +14237,33 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>45108</v>
       </c>
-      <c r="B557" s="20"/>
-      <c r="C557" s="13"/>
-      <c r="D557" s="39"/>
+      <c r="B557" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C557" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D557" s="39">
+        <v>3</v>
+      </c>
       <c r="E557" s="9"/>
       <c r="F557" s="20"/>
-      <c r="G557" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G557" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H557" s="39"/>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
-      <c r="K557" s="20"/>
-    </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K557" s="20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>45139</v>
       </c>
@@ -14265,7 +14281,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>45170</v>
       </c>
@@ -14283,7 +14299,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>45200</v>
       </c>
@@ -14301,7 +14317,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>45231</v>
       </c>
@@ -14319,7 +14335,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>45261</v>
       </c>
@@ -14337,7 +14353,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>45292</v>
       </c>
@@ -14355,7 +14371,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>45323</v>
       </c>
@@ -14373,7 +14389,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>45352</v>
       </c>
@@ -14391,7 +14407,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>45383</v>
       </c>
@@ -14409,7 +14425,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>45413</v>
       </c>
@@ -14427,7 +14443,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>45444</v>
       </c>
@@ -14445,7 +14461,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
         <v>45474</v>
       </c>
@@ -14463,7 +14479,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>45505</v>
       </c>
@@ -14481,7 +14497,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <v>45536</v>
       </c>
@@ -14499,7 +14515,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>45566</v>
       </c>
@@ -14517,7 +14533,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <v>45597</v>
       </c>
@@ -14535,7 +14551,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <v>45627</v>
       </c>
@@ -14553,7 +14569,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <v>45658</v>
       </c>
@@ -14571,7 +14587,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>45689</v>
       </c>
@@ -14589,7 +14605,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>45717</v>
       </c>
@@ -14607,7 +14623,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <v>45748</v>
       </c>
@@ -14625,7 +14641,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>45778</v>
       </c>
@@ -14643,7 +14659,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>45809</v>
       </c>
@@ -14661,7 +14677,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
         <v>45839</v>
       </c>
@@ -14679,7 +14695,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
         <v>45870</v>
       </c>
@@ -14697,7 +14713,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <v>45901</v>
       </c>
@@ -14715,7 +14731,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>45931</v>
       </c>
@@ -14733,7 +14749,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <v>45962</v>
       </c>
@@ -14751,7 +14767,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>45992</v>
       </c>
@@ -14769,7 +14785,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <v>46023</v>
       </c>
@@ -14787,7 +14803,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>46054</v>
       </c>
@@ -14805,7 +14821,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
         <v>46082</v>
       </c>
@@ -14823,7 +14839,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
         <v>46113</v>
       </c>
@@ -14841,7 +14857,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>46143</v>
       </c>
@@ -14859,7 +14875,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>46174</v>
       </c>
@@ -14877,7 +14893,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>46204</v>
       </c>
@@ -14895,7 +14911,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>46235</v>
       </c>
@@ -14913,7 +14929,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>46266</v>
       </c>
@@ -14931,7 +14947,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>46296</v>
       </c>
@@ -14949,7 +14965,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
         <v>46327</v>
       </c>
@@ -14967,7 +14983,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>46357</v>
       </c>
@@ -14985,7 +15001,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>46388</v>
       </c>
@@ -15003,7 +15019,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>46419</v>
       </c>
@@ -15021,7 +15037,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>46447</v>
       </c>
@@ -15039,7 +15055,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
         <v>46478</v>
       </c>
@@ -15057,7 +15073,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>46508</v>
       </c>
@@ -15075,7 +15091,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
         <v>46539</v>
       </c>
@@ -15093,7 +15109,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>46569</v>
       </c>
@@ -15111,7 +15127,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>46600</v>
       </c>
@@ -15129,7 +15145,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
         <v>46631</v>
       </c>
@@ -15147,7 +15163,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40">
         <v>46661</v>
       </c>
@@ -15165,7 +15181,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>46692</v>
       </c>
@@ -15183,7 +15199,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
         <v>46722</v>
       </c>
@@ -15201,7 +15217,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>46753</v>
       </c>
@@ -15219,7 +15235,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
         <v>46784</v>
       </c>
@@ -15237,7 +15253,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>46813</v>
       </c>
@@ -15255,7 +15271,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>46844</v>
       </c>
@@ -15273,7 +15289,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>46874</v>
       </c>
@@ -15291,7 +15307,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>46905</v>
       </c>
@@ -15309,7 +15325,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
         <v>46935</v>
       </c>
@@ -15327,7 +15343,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>46966</v>
       </c>
@@ -15345,7 +15361,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
         <v>46997</v>
       </c>
@@ -15363,7 +15379,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
         <v>47027</v>
       </c>
@@ -15381,7 +15397,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>47058</v>
       </c>
@@ -15399,7 +15415,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>47088</v>
       </c>
@@ -15417,7 +15433,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>47119</v>
       </c>
@@ -15435,7 +15451,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>47150</v>
       </c>
@@ -15453,7 +15469,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>47178</v>
       </c>
@@ -15471,7 +15487,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>47209</v>
       </c>
@@ -15489,7 +15505,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40">
         <v>47239</v>
       </c>
@@ -15507,7 +15523,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>47270</v>
       </c>
@@ -15525,7 +15541,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>47300</v>
       </c>
@@ -15543,7 +15559,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>47331</v>
       </c>
@@ -15561,7 +15577,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>47362</v>
       </c>
@@ -15579,7 +15595,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>47392</v>
       </c>
@@ -15597,7 +15613,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="40">
         <v>47423</v>
       </c>
@@ -15615,7 +15631,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>47453</v>
       </c>
@@ -15633,7 +15649,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>47484</v>
       </c>
@@ -15651,7 +15667,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <v>47515</v>
       </c>
@@ -15669,7 +15685,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>47543</v>
       </c>
@@ -15687,7 +15703,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>47574</v>
       </c>
@@ -15705,7 +15721,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>47604</v>
       </c>
@@ -15723,7 +15739,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>47635</v>
       </c>
@@ -15741,7 +15757,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40">
         <v>47665</v>
       </c>
@@ -15759,7 +15775,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40">
         <v>47696</v>
       </c>
@@ -15777,7 +15793,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <v>47727</v>
       </c>
@@ -15795,7 +15811,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>47757</v>
       </c>
@@ -15813,7 +15829,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>47788</v>
       </c>
@@ -15831,7 +15847,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>47818</v>
       </c>
@@ -15849,7 +15865,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>47849</v>
       </c>
@@ -15867,7 +15883,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="40">
         <v>47880</v>
       </c>
@@ -15885,7 +15901,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>47908</v>
       </c>
@@ -15903,7 +15919,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>47939</v>
       </c>
@@ -15921,7 +15937,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>47969</v>
       </c>
@@ -15939,7 +15955,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>48000</v>
       </c>
@@ -15957,7 +15973,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>48030</v>
       </c>
@@ -15975,7 +15991,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>48061</v>
       </c>
@@ -15993,7 +16009,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>48092</v>
       </c>
@@ -16011,7 +16027,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>48122</v>
       </c>
@@ -16029,7 +16045,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16045,7 +16061,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16061,7 +16077,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16077,7 +16093,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16093,7 +16109,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16109,7 +16125,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -16125,7 +16141,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -16141,7 +16157,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -16157,7 +16173,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -16173,7 +16189,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -16189,7 +16205,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -16205,7 +16221,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -16221,7 +16237,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -16237,7 +16253,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -16253,7 +16269,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -16269,7 +16285,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -16285,7 +16301,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -16301,7 +16317,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -16317,7 +16333,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -16333,7 +16349,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -16349,7 +16365,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -16365,7 +16381,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -16381,7 +16397,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -16397,7 +16413,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -16413,7 +16429,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -16429,7 +16445,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -16445,7 +16461,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -16461,7 +16477,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -16477,7 +16493,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -16493,7 +16509,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -16509,7 +16525,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -16525,7 +16541,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -16541,7 +16557,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -16557,7 +16573,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -16573,7 +16589,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -16589,7 +16605,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -16605,7 +16621,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -16621,7 +16637,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -16637,7 +16653,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -16653,7 +16669,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -16669,7 +16685,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -16685,7 +16701,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -16701,7 +16717,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -16717,7 +16733,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -16733,7 +16749,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -16749,7 +16765,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -16765,7 +16781,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -16781,7 +16797,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -16797,7 +16813,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -16813,7 +16829,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -16829,7 +16845,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -16845,7 +16861,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -16861,7 +16877,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -16877,7 +16893,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -16893,7 +16909,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -16909,7 +16925,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -16925,7 +16941,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -16941,7 +16957,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -16957,7 +16973,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -16973,7 +16989,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -16989,7 +17005,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -17005,7 +17021,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -17021,7 +17037,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -17037,7 +17053,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -17053,7 +17069,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -17069,7 +17085,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -17085,7 +17101,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -17101,7 +17117,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -17117,7 +17133,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -17133,7 +17149,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -17149,7 +17165,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -17165,7 +17181,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -17181,7 +17197,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -17197,7 +17213,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -17213,7 +17229,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -17229,7 +17245,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -17245,7 +17261,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -17261,7 +17277,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -17277,7 +17293,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -17293,7 +17309,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -17309,7 +17325,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -17325,7 +17341,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -17341,7 +17357,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -17357,7 +17373,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -17373,7 +17389,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -17389,7 +17405,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -17405,7 +17421,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -17421,7 +17437,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -17437,7 +17453,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -17453,7 +17469,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -17469,7 +17485,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -17485,7 +17501,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -17501,7 +17517,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -17517,7 +17533,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -17533,7 +17549,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -17549,7 +17565,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -17565,7 +17581,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -17581,7 +17597,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -17597,7 +17613,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -17613,7 +17629,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -17629,7 +17645,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -17645,7 +17661,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -17661,7 +17677,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -17677,7 +17693,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -17693,7 +17709,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40"/>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -17709,7 +17725,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="41"/>
       <c r="B762" s="15"/>
       <c r="C762" s="42"/>
@@ -17740,10 +17756,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17766,28 +17782,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -17800,7 +17816,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17829,7 +17845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>24.11</v>
       </c>
@@ -17859,17 +17875,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17890,7 +17906,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17917,7 +17933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17943,7 +17959,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17969,7 +17985,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17995,7 +18011,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18021,7 +18037,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18047,7 +18063,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18073,7 +18089,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18099,7 +18115,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18119,7 +18135,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18139,7 +18155,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18159,7 +18175,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18180,7 +18196,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18201,7 +18217,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18222,7 +18238,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18243,7 +18259,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18264,7 +18280,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18285,7 +18301,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18306,7 +18322,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18327,7 +18343,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18348,7 +18364,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18369,7 +18385,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18390,7 +18406,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18411,7 +18427,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18432,7 +18448,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18453,7 +18469,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18474,7 +18490,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18495,7 +18511,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18516,7 +18532,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18537,7 +18553,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18558,7 +18574,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18579,7 +18595,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18588,7 +18604,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18597,7 +18613,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18606,7 +18622,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18615,7 +18631,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18624,7 +18640,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18633,7 +18649,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18642,7 +18658,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18651,7 +18667,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18660,7 +18676,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18669,7 +18685,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18678,7 +18694,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18687,7 +18703,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18696,7 +18712,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18705,7 +18721,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18714,7 +18730,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18723,7 +18739,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18732,7 +18748,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18741,7 +18757,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18750,7 +18766,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18759,7 +18775,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18768,7 +18784,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18777,7 +18793,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18786,7 +18802,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18795,7 +18811,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18804,7 +18820,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18813,7 +18829,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18822,7 +18838,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18831,7 +18847,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18840,7 +18856,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
